--- a/biology/Médecine/1955_en_santé_et_médecine/1955_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1955_en_santé_et_médecine/1955_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1955_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1955_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1955 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1955_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1955_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12 avril : annonce officielle de l'efficacité du vaccin antipoliomyélitique injectable développé en 1952 par l'équipe de Jonas Salk (1914-1995)[1] ; le 27 avril un lot produit par les laboratoires Cutter s'avère contaminé par un virus actif et entrainera une série de contentieux[2].
-Septembre : à Glasgow, l’obstétricien Ian Donald (en) et l’ingénieur Tom Brown réalisent les premières échographies fœtales[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 avril : annonce officielle de l'efficacité du vaccin antipoliomyélitique injectable développé en 1952 par l'équipe de Jonas Salk (1914-1995) ; le 27 avril un lot produit par les laboratoires Cutter s'avère contaminé par un virus actif et entrainera une série de contentieux.
+Septembre : à Glasgow, l’obstétricien Ian Donald (en) et l’ingénieur Tom Brown réalisent les premières échographies fœtales.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1955_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1955_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine : Hugo Theorell pour ses travaux sur la nature et le mode d’action des enzymes d’oxydation.
 Prix Lasker :
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1955_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1955_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>21 juin : Muriel Salmona (68 ans), psychiatre française.
 22 décembre : Thomas Südhof (68 ans), médecin allemand, colauréat du prix Nobel de physiologie ou médecine en 2013 avec James Rothman et Randy Schekman.</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1955_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1955_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>23 janvier : René Martial (né en 1873), médecin français.
 20 février : Oswald Avery (né en 1877), médecin américain d'origine canadienne.
